--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2223.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2223.xlsx
@@ -351,16 +351,16 @@
         <v>1.00521926805521</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2223.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2223.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.00521926805521</v>
+        <v>0.9437097907066345</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.998593091964722</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>7.728731155395508</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.69521951675415</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>1.092660784721375</v>
       </c>
     </row>
   </sheetData>
